--- a/biology/Origine et évolution du vivant/Hétérophylie/Hétérophylie.xlsx
+++ b/biology/Origine et évolution du vivant/Hétérophylie/Hétérophylie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9t%C3%A9rophylie</t>
+          <t>Hétérophylie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En systématique, un groupe est dit hétérophylétique quand il ne rassemble pas tous les descendants de son ancêtre commun le plus récent[1],[2]. Un tel groupe peut être soit paraphylétique soit polyphylétique, selon s'il inclut ou non son ancêtre commun le plus récent.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En systématique, un groupe est dit hétérophylétique quand il ne rassemble pas tous les descendants de son ancêtre commun le plus récent,. Un tel groupe peut être soit paraphylétique soit polyphylétique, selon s'il inclut ou non son ancêtre commun le plus récent.
 </t>
         </is>
       </c>
